--- a/simulation_model/data/Scenario_data.xlsx
+++ b/simulation_model/data/Scenario_data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sibel\surfdrive\Shared\Worldbank Bangladesh (2)\12_Scenario_simulations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="7500" windowHeight="5790" activeTab="3"/>
+    <workbookView xWindow="5820" yWindow="21600" windowWidth="25600" windowHeight="14780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="District_names" sheetId="2" r:id="rId1"/>
@@ -23,7 +18,12 @@
   <definedNames>
     <definedName name="District_level_data_v6" localSheetId="4">Food!$A$1:$S$65</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1517,15 +1517,6 @@
     <t>Reference value</t>
   </si>
   <si>
-    <t>water_cost</t>
-  </si>
-  <si>
-    <t>road_cost</t>
-  </si>
-  <si>
-    <t>trs_cost</t>
-  </si>
-  <si>
     <t>Unit cost of IWT transport, taka per ton-km</t>
   </si>
   <si>
@@ -1536,6 +1527,15 @@
   </si>
   <si>
     <t>Transhipment (handling if modal switch) cost, taka per ton</t>
+  </si>
+  <si>
+    <t>Water_cost</t>
+  </si>
+  <si>
+    <t>Road_cost</t>
+  </si>
+  <si>
+    <t>Trs_cost</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1621,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1632,7 +1632,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1640,10 +1640,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,7 +1651,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1749,13 +1749,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1772,15 +1781,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2053,49 +2053,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>182582.07980000001</c:v>
+                  <c:v>182582.0798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61336.167430000001</c:v>
+                  <c:v>61336.16743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38513.407460000002</c:v>
+                  <c:v>38513.40746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>128378.0249</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148347.93979999999</c:v>
+                  <c:v>148347.9398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82732.504910000003</c:v>
+                  <c:v>82732.50491</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>74173.96991</c:v>
@@ -2104,142 +2104,142 @@
                   <c:v>122672.3349</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>288137.34470000002</c:v>
+                  <c:v>288137.3447</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>212536.9523</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>85585.349900000001</c:v>
+                  <c:v>85585.3499</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>108408.1099</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>124098.7574</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>221095.4872</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>223948.3322</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>102702.41989999999</c:v>
+                  <c:v>102702.4199</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>356605.62459999998</c:v>
+                  <c:v>356605.6246</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>96996.729890000002</c:v>
+                  <c:v>96996.72989</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>198272.7273</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>768841.72660000005</c:v>
+                  <c:v>768841.7266</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>300975.14720000001</c:v>
+                  <c:v>300975.1472</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>313812.94959999999</c:v>
+                  <c:v>313812.9496</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>121245.9124</c:v>
@@ -2270,196 +2270,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>9000</c:v>
+                  <c:v>9000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65000</c:v>
+                  <c:v>65000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17000</c:v>
+                  <c:v>17000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11000</c:v>
+                  <c:v>11000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13000</c:v>
+                  <c:v>13000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28000</c:v>
+                  <c:v>28000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>242000</c:v>
+                  <c:v>242000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46000</c:v>
+                  <c:v>46000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>246000</c:v>
+                  <c:v>246000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41000</c:v>
+                  <c:v>41000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>73000</c:v>
+                  <c:v>73000.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39000</c:v>
+                  <c:v>39000.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13000</c:v>
+                  <c:v>13000.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22000</c:v>
+                  <c:v>22000.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1068000</c:v>
+                  <c:v>1.068E6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>77000</c:v>
+                  <c:v>77000.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18000</c:v>
+                  <c:v>18000.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35000</c:v>
+                  <c:v>35000.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12000</c:v>
+                  <c:v>12000.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23000</c:v>
+                  <c:v>23000.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>69000</c:v>
+                  <c:v>69000.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39000</c:v>
+                  <c:v>39000.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34000</c:v>
+                  <c:v>34000.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27000</c:v>
+                  <c:v>27000.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6000</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42000</c:v>
+                  <c:v>42000.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41000</c:v>
+                  <c:v>41000.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>54000</c:v>
+                  <c:v>54000.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>987000</c:v>
+                  <c:v>987000.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>741000</c:v>
+                  <c:v>741000.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>325000</c:v>
+                  <c:v>325000.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19000</c:v>
+                  <c:v>19000.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11000</c:v>
+                  <c:v>11000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>784000</c:v>
+                  <c:v>784000.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>623000</c:v>
+                  <c:v>623000.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>145000</c:v>
+                  <c:v>145000.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>137000</c:v>
+                  <c:v>137000.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>70000</c:v>
+                  <c:v>70000.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>333000</c:v>
+                  <c:v>333000.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>147000</c:v>
+                  <c:v>147000.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1143000</c:v>
+                  <c:v>1.143E6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>526000</c:v>
+                  <c:v>526000.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13000</c:v>
+                  <c:v>13000.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,196 +2487,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>523000</c:v>
+                  <c:v>523000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>614000</c:v>
+                  <c:v>614000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>276000</c:v>
+                  <c:v>276000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137000</c:v>
+                  <c:v>137000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>481000</c:v>
+                  <c:v>481000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>227000</c:v>
+                  <c:v>227000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46000</c:v>
+                  <c:v>46000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>522000</c:v>
+                  <c:v>522000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>347000</c:v>
+                  <c:v>347000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>832000</c:v>
+                  <c:v>832000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1136000</c:v>
+                  <c:v>1.136E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>396000</c:v>
+                  <c:v>396000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>331000</c:v>
+                  <c:v>331000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130000</c:v>
+                  <c:v>130000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>373000</c:v>
+                  <c:v>373000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>560000</c:v>
+                  <c:v>560000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52000</c:v>
+                  <c:v>52000.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>220000</c:v>
+                  <c:v>220000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>271000</c:v>
+                  <c:v>271000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>352000</c:v>
+                  <c:v>352000.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>399000</c:v>
+                  <c:v>399000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>760000</c:v>
+                  <c:v>760000.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>923000</c:v>
+                  <c:v>923000.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>201000</c:v>
+                  <c:v>201000.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>289000</c:v>
+                  <c:v>289000.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>116000</c:v>
+                  <c:v>116000.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>135000.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>318000</c:v>
+                  <c:v>318000.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1586000</c:v>
+                  <c:v>1.586E6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1045000</c:v>
+                  <c:v>1.045E6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>167000</c:v>
+                  <c:v>167000.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>143000</c:v>
+                  <c:v>143000.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>553000</c:v>
+                  <c:v>553000.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>900000</c:v>
+                  <c:v>900000.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>354000</c:v>
+                  <c:v>354000.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>304000</c:v>
+                  <c:v>304000.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1054000</c:v>
+                  <c:v>1.054E6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>646000</c:v>
+                  <c:v>646000.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>388000</c:v>
+                  <c:v>388000.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>435000</c:v>
+                  <c:v>435000.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>278000</c:v>
+                  <c:v>278000.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>173000</c:v>
+                  <c:v>173000.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>221000</c:v>
+                  <c:v>221000.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>541000</c:v>
+                  <c:v>541000.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1229000</c:v>
+                  <c:v>1.229E6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1513000</c:v>
+                  <c:v>1.513E6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>422000</c:v>
+                  <c:v>422000.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>420000</c:v>
+                  <c:v>420000.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>514000</c:v>
+                  <c:v>514000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>595000</c:v>
+                  <c:v>595000.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>744000</c:v>
+                  <c:v>744000.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1339000</c:v>
+                  <c:v>1.339E6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>772000</c:v>
+                  <c:v>772000.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>636000</c:v>
+                  <c:v>636000.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>416000</c:v>
+                  <c:v>416000.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>626000</c:v>
+                  <c:v>626000.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>403000</c:v>
+                  <c:v>403000.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>948000</c:v>
+                  <c:v>948000.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>515000</c:v>
+                  <c:v>515000.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>626000</c:v>
+                  <c:v>626000.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>485000</c:v>
+                  <c:v>485000.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>760000</c:v>
+                  <c:v>760000.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>620000</c:v>
+                  <c:v>620000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,193 +2707,193 @@
                   <c:v>12222.22222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555.55555560000005</c:v>
+                  <c:v>555.5555556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10555.555560000001</c:v>
+                  <c:v>10555.55556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14444.444439999999</c:v>
+                  <c:v>14444.44444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4444.4444439999997</c:v>
+                  <c:v>4444.444444</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47777.777779999997</c:v>
+                  <c:v>47777.77778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>230000</c:v>
+                  <c:v>230000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>155000</c:v>
+                  <c:v>155000.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1111.1111109999999</c:v>
+                  <c:v>1111.111111</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33888.888890000002</c:v>
+                  <c:v>33888.88889</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>123333.3333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15555.555560000001</c:v>
+                  <c:v>15555.55556</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>204444.44440000001</c:v>
+                  <c:v>204444.4444</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42222.222220000003</c:v>
+                  <c:v>42222.22222</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>132777.77780000001</c:v>
+                  <c:v>132777.7778</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1057222.2220000001</c:v>
+                  <c:v>1.057222222E6</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>210000</c:v>
+                  <c:v>210000.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>160000</c:v>
+                  <c:v>160000.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4444.4444439999997</c:v>
+                  <c:v>4444.444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,196 +2921,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7200</c:v>
+                  <c:v>7200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12900</c:v>
+                  <c:v>12900.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6700</c:v>
+                  <c:v>6700.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3900</c:v>
+                  <c:v>3900.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90700</c:v>
+                  <c:v>90700.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18000</c:v>
+                  <c:v>18000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15000</c:v>
+                  <c:v>15000.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3700</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17000</c:v>
+                  <c:v>17000.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2300</c:v>
+                  <c:v>2300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2400</c:v>
+                  <c:v>2400.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3600</c:v>
+                  <c:v>3600.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>51300</c:v>
+                  <c:v>51300.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17600</c:v>
+                  <c:v>17600.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4500</c:v>
+                  <c:v>4500.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15500</c:v>
+                  <c:v>15500.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19000</c:v>
+                  <c:v>19000.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13200</c:v>
+                  <c:v>13200.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20600</c:v>
+                  <c:v>20600.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1100</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>52300</c:v>
+                  <c:v>52300.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>32700</c:v>
+                  <c:v>32700.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>55100</c:v>
+                  <c:v>55100.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10300</c:v>
+                  <c:v>10300.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2500</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4200</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3600</c:v>
+                  <c:v>3600.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>58700</c:v>
+                  <c:v>58700.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>84100</c:v>
+                  <c:v>84100.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>68600</c:v>
+                  <c:v>68600.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>107700</c:v>
+                  <c:v>107700.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>97400</c:v>
+                  <c:v>97400.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6700</c:v>
+                  <c:v>6700.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>59300</c:v>
+                  <c:v>59300.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5100</c:v>
+                  <c:v>5100.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>28100</c:v>
+                  <c:v>28100.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3800</c:v>
+                  <c:v>3800.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9200</c:v>
+                  <c:v>9200.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52600</c:v>
+                  <c:v>52600.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7100</c:v>
+                  <c:v>7100.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>171900</c:v>
+                  <c:v>171900.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3126,11 +3126,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1129891712"/>
-        <c:axId val="-1129884096"/>
+        <c:axId val="2093604888"/>
+        <c:axId val="2093607912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1129891712"/>
+        <c:axId val="2093604888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,7 +3140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1129884096"/>
+        <c:crossAx val="2093607912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3148,7 +3148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1129884096"/>
+        <c:axId val="2093607912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,7 +3159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1129891712"/>
+        <c:crossAx val="2093604888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3262,7 +3262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3297,7 +3297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3512,16 +3512,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="C1" s="4"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>35</v>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
@@ -3564,45 +3564,45 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -3610,38 +3610,38 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -3649,12 +3649,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -3670,17 +3670,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -3688,12 +3688,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -3701,29 +3701,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1"/>
       <c r="B28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -3731,28 +3731,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="B32" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="B34" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
         <v>78</v>
       </c>
@@ -3760,17 +3760,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="1" customFormat="1">
       <c r="B38" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
@@ -3778,24 +3778,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
         <v>76</v>
       </c>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
@@ -3812,79 +3812,79 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="B47" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="B48" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="B49" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="B50" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="B52" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="B54" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="B55" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="B56" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="B57" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1"/>
       <c r="B58" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
         <v>81</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>82</v>
       </c>
@@ -3900,17 +3900,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="B61" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="B62" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>83</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>84</v>
       </c>
@@ -3926,17 +3926,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
         <v>60</v>
       </c>
@@ -3946,7 +3946,12 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3958,14 +3963,14 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>399</v>
       </c>
@@ -4042,7 +4047,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -4091,7 +4096,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4117,7 +4122,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -4140,7 +4145,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -4148,7 +4153,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -4189,7 +4194,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4230,7 +4235,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -4247,7 +4252,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -4261,7 +4266,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -4269,7 +4274,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -4286,7 +4291,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -4358,7 +4363,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -4408,7 +4413,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -4443,7 +4448,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -4519,7 +4524,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>443</v>
       </c>
@@ -4533,7 +4538,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -4561,7 +4566,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -4572,7 +4577,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -4625,7 +4630,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -4678,7 +4683,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -4686,7 +4691,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -4798,7 +4803,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -4866,7 +4871,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -4889,7 +4894,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -4929,7 +4934,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -4999,7 +5004,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -5010,7 +5015,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -5021,7 +5026,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -5041,7 +5046,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -5061,7 +5066,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -5072,7 +5077,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -5083,7 +5088,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -5097,7 +5102,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -5125,7 +5130,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>450</v>
       </c>
@@ -5133,7 +5138,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -5144,7 +5149,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -5203,7 +5208,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -5220,7 +5225,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -5252,7 +5257,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -5263,7 +5268,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -5274,7 +5279,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -5285,7 +5290,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -5314,7 +5319,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -5325,7 +5330,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -5405,7 +5410,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -5413,11 +5418,16 @@
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5429,13 +5439,13 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="28" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
@@ -5443,7 +5453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
         <v>90</v>
       </c>
@@ -5451,7 +5461,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="27" t="s">
         <v>91</v>
       </c>
@@ -5459,7 +5469,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="27" t="s">
         <v>92</v>
       </c>
@@ -5467,7 +5477,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="27" t="s">
         <v>93</v>
       </c>
@@ -5475,7 +5485,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="27" t="s">
         <v>94</v>
       </c>
@@ -5483,7 +5493,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="27" t="s">
         <v>95</v>
       </c>
@@ -5491,7 +5501,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
         <v>96</v>
       </c>
@@ -5499,7 +5509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="27" t="s">
         <v>97</v>
       </c>
@@ -5507,7 +5517,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="27" t="s">
         <v>98</v>
       </c>
@@ -5515,7 +5525,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="27" t="s">
         <v>99</v>
       </c>
@@ -5523,7 +5533,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="27" t="s">
         <v>100</v>
       </c>
@@ -5531,7 +5541,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="27" t="s">
         <v>101</v>
       </c>
@@ -5539,7 +5549,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
         <v>102</v>
       </c>
@@ -5547,7 +5557,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="27" t="s">
         <v>103</v>
       </c>
@@ -5555,7 +5565,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
         <v>104</v>
       </c>
@@ -5563,7 +5573,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="27" t="s">
         <v>106</v>
       </c>
@@ -5571,7 +5581,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="27" t="s">
         <v>107</v>
       </c>
@@ -5579,7 +5589,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="27" t="s">
         <v>108</v>
       </c>
@@ -5587,7 +5597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="27" t="s">
         <v>109</v>
       </c>
@@ -5595,7 +5605,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="27" t="s">
         <v>110</v>
       </c>
@@ -5603,7 +5613,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="27" t="s">
         <v>111</v>
       </c>
@@ -5611,7 +5621,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
         <v>112</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="27" t="s">
         <v>113</v>
       </c>
@@ -5627,7 +5637,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="27" t="s">
         <v>114</v>
       </c>
@@ -5635,7 +5645,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="27" t="s">
         <v>115</v>
       </c>
@@ -5643,7 +5653,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="27" t="s">
         <v>116</v>
       </c>
@@ -5651,7 +5661,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="27" t="s">
         <v>117</v>
       </c>
@@ -5659,7 +5669,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="27" t="s">
         <v>118</v>
       </c>
@@ -5667,7 +5677,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="27" t="s">
         <v>119</v>
       </c>
@@ -5675,7 +5685,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
         <v>120</v>
       </c>
@@ -5683,7 +5693,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
         <v>121</v>
       </c>
@@ -5691,7 +5701,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
         <v>122</v>
       </c>
@@ -5699,7 +5709,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="27" t="s">
         <v>123</v>
       </c>
@@ -5707,7 +5717,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="27" t="s">
         <v>124</v>
       </c>
@@ -5715,7 +5725,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="27" t="s">
         <v>125</v>
       </c>
@@ -5723,7 +5733,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="27" t="s">
         <v>126</v>
       </c>
@@ -5731,7 +5741,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="27" t="s">
         <v>127</v>
       </c>
@@ -5739,7 +5749,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="27" t="s">
         <v>128</v>
       </c>
@@ -5747,7 +5757,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="27" t="s">
         <v>129</v>
       </c>
@@ -5755,7 +5765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="27" t="s">
         <v>130</v>
       </c>
@@ -5763,7 +5773,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
         <v>131</v>
       </c>
@@ -5771,7 +5781,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="27" t="s">
         <v>132</v>
       </c>
@@ -5779,7 +5789,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="27" t="s">
         <v>133</v>
       </c>
@@ -5787,7 +5797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="27" t="s">
         <v>134</v>
       </c>
@@ -5795,7 +5805,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="27" t="s">
         <v>135</v>
       </c>
@@ -5803,7 +5813,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="27" t="s">
         <v>136</v>
       </c>
@@ -5811,7 +5821,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="27" t="s">
         <v>137</v>
       </c>
@@ -5819,7 +5829,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="27" t="s">
         <v>138</v>
       </c>
@@ -5827,7 +5837,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="27" t="s">
         <v>139</v>
       </c>
@@ -5835,7 +5845,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="27" t="s">
         <v>140</v>
       </c>
@@ -5843,7 +5853,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="27" t="s">
         <v>141</v>
       </c>
@@ -5851,7 +5861,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="27" t="s">
         <v>142</v>
       </c>
@@ -5859,7 +5869,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="27" t="s">
         <v>143</v>
       </c>
@@ -5867,7 +5877,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="27" t="s">
         <v>144</v>
       </c>
@@ -5883,6 +5893,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5890,20 +5905,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:G45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="59.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="22" t="s">
         <v>145</v>
       </c>
@@ -5914,7 +5929,7 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>150</v>
       </c>
@@ -5937,8 +5952,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -5953,15 +5968,15 @@
       <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="50" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="45"/>
       <c r="B4" s="16" t="s">
         <v>242</v>
       </c>
@@ -5974,11 +5989,11 @@
       <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="45"/>
       <c r="B5" s="16" t="s">
         <v>243</v>
       </c>
@@ -5991,11 +6006,11 @@
       <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="46"/>
       <c r="B6" s="19" t="s">
         <v>244</v>
       </c>
@@ -6008,11 +6023,11 @@
       <c r="E6" s="42">
         <v>1</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="47" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -6027,11 +6042,11 @@
       <c r="E7" s="33">
         <v>1</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="48"/>
       <c r="B8" s="16" t="s">
         <v>246</v>
       </c>
@@ -6044,11 +6059,11 @@
       <c r="E8" s="33">
         <v>1</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="48"/>
       <c r="B9" s="16" t="s">
         <v>247</v>
       </c>
@@ -6061,11 +6076,11 @@
       <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="49"/>
       <c r="B10" s="19" t="s">
         <v>248</v>
       </c>
@@ -6078,11 +6093,11 @@
       <c r="E10" s="42">
         <v>1</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="F10" s="48"/>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="44" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -6097,11 +6112,11 @@
       <c r="E11" s="33">
         <v>1</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="45"/>
       <c r="B12" s="16" t="s">
         <v>250</v>
       </c>
@@ -6114,11 +6129,11 @@
       <c r="E12" s="33">
         <v>1</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="45"/>
       <c r="B13" s="16" t="s">
         <v>251</v>
       </c>
@@ -6131,11 +6146,11 @@
       <c r="E13" s="33">
         <v>1</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="46"/>
       <c r="B14" s="19" t="s">
         <v>252</v>
       </c>
@@ -6148,11 +6163,11 @@
       <c r="E14" s="42">
         <v>1</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="F14" s="48"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="47" t="s">
         <v>154</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -6167,11 +6182,11 @@
       <c r="E15" s="33">
         <v>1</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="48"/>
       <c r="B16" s="16" t="s">
         <v>275</v>
       </c>
@@ -6184,11 +6199,11 @@
       <c r="E16" s="33">
         <v>1</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="48"/>
       <c r="B17" s="16" t="s">
         <v>276</v>
       </c>
@@ -6201,11 +6216,11 @@
       <c r="E17" s="33">
         <v>1</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="49"/>
       <c r="B18" s="19" t="s">
         <v>277</v>
       </c>
@@ -6218,11 +6233,11 @@
       <c r="E18" s="42">
         <v>1</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="44" t="s">
         <v>155</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -6237,11 +6252,11 @@
       <c r="E19" s="33">
         <v>1</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="45"/>
       <c r="B20" s="16" t="s">
         <v>254</v>
       </c>
@@ -6254,11 +6269,11 @@
       <c r="E20" s="33">
         <v>1</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="45"/>
       <c r="B21" s="16" t="s">
         <v>255</v>
       </c>
@@ -6271,11 +6286,11 @@
       <c r="E21" s="33">
         <v>1</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="50"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A22" s="46"/>
       <c r="B22" s="19" t="s">
         <v>256</v>
       </c>
@@ -6288,13 +6303,13 @@
       <c r="E22" s="19">
         <v>1</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="49"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" customHeight="1">
       <c r="A23" s="41"/>
       <c r="B23" s="33" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C23" s="33">
         <v>0</v>
@@ -6308,7 +6323,7 @@
       <c r="F23" s="37"/>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="21.75" customHeight="1">
       <c r="A24" s="41"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -6317,7 +6332,7 @@
       <c r="F24" s="37"/>
       <c r="G24" s="38"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="22" t="s">
         <v>257</v>
       </c>
@@ -6328,7 +6343,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>150</v>
       </c>
@@ -6347,8 +6362,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="48" t="s">
         <v>260</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -6363,15 +6378,15 @@
       <c r="E28" s="16">
         <v>0.88</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="50" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="48"/>
       <c r="B29" s="16" t="s">
         <v>259</v>
       </c>
@@ -6384,11 +6399,11 @@
       <c r="E29" s="16">
         <v>0</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="49"/>
       <c r="B30" s="21" t="s">
         <v>261</v>
       </c>
@@ -6401,11 +6416,11 @@
       <c r="E30" s="16">
         <v>0.12</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="47"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+      <c r="F30" s="48"/>
+      <c r="G30" s="50"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="47" t="s">
         <v>151</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -6420,11 +6435,11 @@
       <c r="E31" s="33">
         <v>0.88</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="50"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="48"/>
       <c r="B32" s="16" t="s">
         <v>263</v>
       </c>
@@ -6437,11 +6452,11 @@
       <c r="E32" s="16">
         <v>0</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="50"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="49"/>
       <c r="B33" s="21" t="s">
         <v>264</v>
       </c>
@@ -6454,11 +6469,11 @@
       <c r="E33" s="33">
         <v>0.12</v>
       </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="47"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="F33" s="48"/>
+      <c r="G33" s="50"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="48" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -6473,11 +6488,11 @@
       <c r="E34" s="33">
         <v>0.88</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="50"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="48"/>
       <c r="B35" s="16" t="s">
         <v>266</v>
       </c>
@@ -6490,11 +6505,11 @@
       <c r="E35" s="16">
         <v>0</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="49"/>
       <c r="B36" s="21" t="s">
         <v>267</v>
       </c>
@@ -6507,11 +6522,11 @@
       <c r="E36" s="33">
         <v>0.12</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="47" t="s">
         <v>278</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -6526,11 +6541,11 @@
       <c r="E37" s="33">
         <v>0.88</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="47"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="50"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="48"/>
       <c r="B38" s="16" t="s">
         <v>269</v>
       </c>
@@ -6543,11 +6558,11 @@
       <c r="E38" s="16">
         <v>0</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="50"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="49"/>
       <c r="B39" s="21" t="s">
         <v>270</v>
       </c>
@@ -6560,11 +6575,11 @@
       <c r="E39" s="33">
         <v>0.12</v>
       </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="47"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="F39" s="48"/>
+      <c r="G39" s="50"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="47" t="s">
         <v>279</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -6579,11 +6594,11 @@
       <c r="E40" s="33">
         <v>0.88</v>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="47"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="50"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="48"/>
       <c r="B41" s="16" t="s">
         <v>272</v>
       </c>
@@ -6596,11 +6611,11 @@
       <c r="E41" s="16">
         <v>0</v>
       </c>
-      <c r="F41" s="44"/>
-      <c r="G41" s="47"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="50"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="49"/>
       <c r="B42" s="21" t="s">
         <v>273</v>
       </c>
@@ -6613,12 +6628,12 @@
       <c r="E42" s="21">
         <v>0.12</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="48"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="49"/>
+      <c r="G42" s="51"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="B43" s="40" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C43" s="33">
         <v>1</v>
@@ -6631,12 +6646,12 @@
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="38" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="B44" s="40" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C44" s="33">
         <v>3</v>
@@ -6649,12 +6664,12 @@
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="38" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="B45" s="40" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C45" s="21">
         <v>200</v>
@@ -6667,10 +6682,10 @@
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="38" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="22" t="s">
         <v>280</v>
       </c>
@@ -6681,7 +6696,7 @@
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="14"/>
       <c r="B48" s="14" t="s">
         <v>284</v>
@@ -6698,15 +6713,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="25"/>
       <c r="B49" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="D49" s="49"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="39"/>
       <c r="F49" s="29" t="s">
         <v>360</v>
@@ -6715,7 +6730,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="28">
       <c r="A50" s="21"/>
       <c r="B50" s="21" t="s">
         <v>281</v>
@@ -6734,8 +6749,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+    <row r="51" spans="1:7">
+      <c r="A51" s="47" t="s">
         <v>283</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -6748,15 +6763,15 @@
         <v>1</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="53" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="48"/>
       <c r="B52" s="16" t="s">
         <v>290</v>
       </c>
@@ -6767,11 +6782,11 @@
         <v>1</v>
       </c>
       <c r="E52" s="16"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="51"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="54"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="49"/>
       <c r="B53" s="21" t="s">
         <v>291</v>
       </c>
@@ -6782,10 +6797,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="51"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="48"/>
+      <c r="G53" s="54"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="34" t="s">
         <v>362</v>
       </c>
@@ -6799,11 +6814,11 @@
         <v>1</v>
       </c>
       <c r="E54" s="33"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="51"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+      <c r="F54" s="48"/>
+      <c r="G54" s="54"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="47" t="s">
         <v>282</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -6816,11 +6831,11 @@
         <v>1</v>
       </c>
       <c r="E55" s="16"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="51"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="54"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="48"/>
       <c r="B56" s="16" t="s">
         <v>295</v>
       </c>
@@ -6831,11 +6846,11 @@
         <v>1</v>
       </c>
       <c r="E56" s="16"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="51"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="54"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="48"/>
       <c r="B57" s="16" t="s">
         <v>293</v>
       </c>
@@ -6846,11 +6861,11 @@
         <v>1</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="51"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="54"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="49"/>
       <c r="B58" s="21" t="s">
         <v>292</v>
       </c>
@@ -6861,11 +6876,11 @@
         <v>1</v>
       </c>
       <c r="E58" s="16"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="51"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
+      <c r="F58" s="48"/>
+      <c r="G58" s="54"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="47" t="s">
         <v>285</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -6878,11 +6893,11 @@
         <v>1</v>
       </c>
       <c r="E59" s="16"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="51"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="54"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="48"/>
       <c r="B60" s="16" t="s">
         <v>298</v>
       </c>
@@ -6893,11 +6908,11 @@
         <v>1</v>
       </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="51"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="54"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="48"/>
       <c r="B61" s="16" t="s">
         <v>299</v>
       </c>
@@ -6908,11 +6923,11 @@
         <v>1</v>
       </c>
       <c r="E61" s="16"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="51"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="54"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="49"/>
       <c r="B62" s="21" t="s">
         <v>297</v>
       </c>
@@ -6923,10 +6938,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="16"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="51"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="48"/>
+      <c r="G62" s="54"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="36" t="s">
         <v>453</v>
       </c>
@@ -6940,10 +6955,10 @@
         <v>1</v>
       </c>
       <c r="E63" s="16"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="51"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="48"/>
+      <c r="G63" s="54"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="30" t="s">
         <v>286</v>
       </c>
@@ -6957,10 +6972,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="16"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="51"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F64" s="48"/>
+      <c r="G64" s="54"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="30" t="s">
         <v>287</v>
       </c>
@@ -6974,10 +6989,10 @@
         <v>1</v>
       </c>
       <c r="E65" s="16"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="51"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="48"/>
+      <c r="G65" s="54"/>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="15" t="s">
         <v>288</v>
       </c>
@@ -6991,17 +7006,11 @@
         <v>1</v>
       </c>
       <c r="E66" s="33"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="51"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="F3:F22"/>
-    <mergeCell ref="F28:F42"/>
     <mergeCell ref="F51:F66"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="G3:G22"/>
@@ -7016,9 +7025,20 @@
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="F3:F22"/>
+    <mergeCell ref="F28:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7030,30 +7050,30 @@
       <selection activeCell="S1" activeCellId="5" sqref="C1:C1048576 G1:G1048576 J1:J1048576 M1:M1048576 P1:P1048576 S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
@@ -7121,7 +7141,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7192,7 +7212,7 @@
         <v>728404.30201999994</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7263,7 +7283,7 @@
         <v>686200</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7334,7 +7354,7 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7405,7 +7425,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -7476,7 +7496,7 @@
         <v>553336.16743000003</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -7547,7 +7567,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7618,7 +7638,7 @@
         <v>88068.963015600006</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7689,7 +7709,7 @@
         <v>562900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7760,7 +7780,7 @@
         <v>595700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7831,7 +7851,7 @@
         <v>1016933.5804600001</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7902,7 +7922,7 @@
         <v>1548692.38424</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -7973,7 +7993,7 @@
         <v>401000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8044,7 +8064,7 @@
         <v>334100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -8115,7 +8135,7 @@
         <v>221176.94935400001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -8186,7 +8206,7 @@
         <v>374000</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -8257,7 +8277,7 @@
         <v>641173.96990999999</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -8328,7 +8348,7 @@
         <v>182672.33490000002</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -8399,7 +8419,7 @@
         <v>597415.12248000002</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -8470,7 +8490,7 @@
         <v>808236.9523</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8541,7 +8561,7 @@
         <v>355200</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -8612,7 +8632,7 @@
         <v>421000</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -8683,7 +8703,7 @@
         <v>1088585.3499</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -8754,7 +8774,7 @@
         <v>1075219.221011</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -8825,7 +8845,7 @@
         <v>231000</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -8896,7 +8916,7 @@
         <v>313300</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -8967,7 +8987,7 @@
         <v>1184200</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -9038,7 +9058,7 @@
         <v>212400</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -9109,7 +9129,7 @@
         <v>338400</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -9180,7 +9200,7 @@
         <v>1778987.6462900001</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -9251,7 +9271,7 @@
         <v>1060600</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -9322,7 +9342,7 @@
         <v>221300</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -9393,7 +9413,7 @@
         <v>183600</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -9464,7 +9484,7 @@
         <v>626500</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -9535,7 +9555,7 @@
         <v>1205595.4872000001</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -9606,7 +9626,7 @@
         <v>360500</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -9677,7 +9697,7 @@
         <v>357000</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -9748,7 +9768,7 @@
         <v>1474481.6655000001</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -9819,7 +9839,7 @@
         <v>693600</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9890,7 +9910,7 @@
         <v>513357.97545999999</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -9961,7 +9981,7 @@
         <v>1090350.0690000001</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -10032,7 +10052,7 @@
         <v>312700</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -10103,7 +10123,7 @@
         <v>269100</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -10174,7 +10194,7 @@
         <v>232300</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -10245,7 +10265,7 @@
         <v>597500</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -10316,7 +10336,7 @@
         <v>2359418.95211</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -10387,7 +10407,7 @@
         <v>1234600</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -10458,7 +10478,7 @@
         <v>1896700</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -10529,7 +10549,7 @@
         <v>522100</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -10600,7 +10620,7 @@
         <v>507600</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -10671,7 +10691,7 @@
         <v>963750.50510000007</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10742,7 +10762,7 @@
         <v>3302463.9486000002</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -10813,7 +10833,7 @@
         <v>780700</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -10884,7 +10904,7 @@
         <v>2532275.1472</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -10955,7 +10975,7 @@
         <v>922100</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -11026,7 +11046,7 @@
         <v>801100</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -11097,7 +11117,7 @@
         <v>489800</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -11168,7 +11188,7 @@
         <v>968200</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -11239,7 +11259,7 @@
         <v>602600</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -11310,7 +11330,7 @@
         <v>2571912.9495999999</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -11381,7 +11401,7 @@
         <v>1212900</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -11452,7 +11472,7 @@
         <v>639500</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -11523,7 +11543,7 @@
         <v>499200</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -11594,7 +11614,7 @@
         <v>765100</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -11667,6 +11687,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11678,17 +11703,17 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11708,7 +11733,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11728,7 +11753,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11748,7 +11773,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -11768,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -11788,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11808,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11828,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -11848,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11868,7 +11893,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -11888,7 +11913,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -11908,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -11928,7 +11953,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -11948,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -11968,7 +11993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -11988,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -12008,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12028,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -12048,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -12068,7 +12093,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -12088,7 +12113,7 @@
         <v>90700</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -12108,7 +12133,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -12128,7 +12153,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -12148,7 +12173,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -12168,7 +12193,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -12188,7 +12213,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -12208,7 +12233,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -12228,7 +12253,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -12248,7 +12273,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -12268,7 +12293,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -12288,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -12308,7 +12333,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -12328,7 +12353,7 @@
         <v>51300</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -12348,7 +12373,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -12368,7 +12393,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -12388,7 +12413,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -12408,7 +12433,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -12428,7 +12453,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -12448,7 +12473,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -12468,7 +12493,7 @@
         <v>20600</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -12488,7 +12513,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -12508,7 +12533,7 @@
         <v>52300</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -12528,7 +12553,7 @@
         <v>32700</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -12548,7 +12573,7 @@
         <v>55100</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -12568,7 +12593,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -12588,7 +12613,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -12608,7 +12633,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -12628,7 +12653,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -12648,7 +12673,7 @@
         <v>58700</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -12668,7 +12693,7 @@
         <v>84100</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -12688,7 +12713,7 @@
         <v>68600</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -12708,7 +12733,7 @@
         <v>107700</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -12728,7 +12753,7 @@
         <v>97400</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -12748,7 +12773,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -12768,7 +12793,7 @@
         <v>59300</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -12788,7 +12813,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -12808,7 +12833,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -12828,7 +12853,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -12848,7 +12873,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -12868,7 +12893,7 @@
         <v>52600</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -12888,7 +12913,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12908,7 +12933,7 @@
         <v>171900</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -12928,7 +12953,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -12948,7 +12973,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -12968,7 +12993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -12991,6 +13016,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13002,14 +13032,14 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>364</v>
       </c>
@@ -13023,8 +13053,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="48" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -13037,8 +13067,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="48"/>
       <c r="B3" s="16" t="s">
         <v>369</v>
       </c>
@@ -13049,8 +13079,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="48"/>
       <c r="B4" s="16" t="s">
         <v>371</v>
       </c>
@@ -13061,8 +13091,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:4">
+      <c r="A5" s="48"/>
       <c r="B5" s="16" t="s">
         <v>372</v>
       </c>
@@ -13073,8 +13103,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="48"/>
       <c r="B6" s="16" t="s">
         <v>373</v>
       </c>
@@ -13085,8 +13115,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="49"/>
       <c r="B7" s="21" t="s">
         <v>374</v>
       </c>
@@ -13097,8 +13127,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="47" t="s">
         <v>384</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -13111,8 +13141,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="48"/>
       <c r="B9" s="16" t="s">
         <v>388</v>
       </c>
@@ -13123,8 +13153,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="48"/>
       <c r="B10" s="16" t="s">
         <v>387</v>
       </c>
@@ -13135,8 +13165,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="48"/>
       <c r="B11" s="16" t="s">
         <v>386</v>
       </c>
@@ -13147,8 +13177,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="48"/>
       <c r="B12" s="16" t="s">
         <v>389</v>
       </c>
@@ -13159,8 +13189,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="48"/>
       <c r="B13" s="16" t="s">
         <v>390</v>
       </c>
@@ -13171,8 +13201,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="48"/>
       <c r="B14" s="16" t="s">
         <v>391</v>
       </c>
@@ -13183,8 +13213,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="49"/>
       <c r="B15" s="21" t="s">
         <v>392</v>
       </c>
@@ -13195,8 +13225,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="47" t="s">
         <v>383</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -13209,8 +13239,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="48"/>
       <c r="B17" s="16" t="s">
         <v>377</v>
       </c>
@@ -13221,8 +13251,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="48"/>
       <c r="B18" s="16" t="s">
         <v>378</v>
       </c>
@@ -13233,8 +13263,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="48"/>
       <c r="B19" s="16" t="s">
         <v>376</v>
       </c>
@@ -13245,8 +13275,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="48"/>
       <c r="B20" s="16" t="s">
         <v>379</v>
       </c>
@@ -13257,8 +13287,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="48"/>
       <c r="B21" s="16" t="s">
         <v>380</v>
       </c>
@@ -13269,8 +13299,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="48"/>
       <c r="B22" s="16" t="s">
         <v>381</v>
       </c>
@@ -13281,8 +13311,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="49"/>
       <c r="B23" s="21" t="s">
         <v>382</v>
       </c>
@@ -13293,8 +13323,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="47" t="s">
         <v>395</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -13307,8 +13337,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:4">
+      <c r="A25" s="49"/>
       <c r="B25" s="21" t="s">
         <v>394</v>
       </c>
@@ -13319,8 +13349,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="47" t="s">
         <v>396</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -13333,8 +13363,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="49"/>
       <c r="B27" s="21" t="s">
         <v>456</v>
       </c>
@@ -13345,8 +13375,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="47" t="s">
         <v>396</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -13359,8 +13389,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="49"/>
       <c r="B29" s="21" t="s">
         <v>458</v>
       </c>
@@ -13371,8 +13401,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="47" t="s">
         <v>397</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -13385,8 +13415,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="49"/>
       <c r="B31" s="21" t="s">
         <v>460</v>
       </c>
@@ -13397,8 +13427,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="47" t="s">
         <v>398</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -13411,8 +13441,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:4">
+      <c r="A33" s="49"/>
       <c r="B33" s="21" t="s">
         <v>462</v>
       </c>
@@ -13435,6 +13465,11 @@
     <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/simulation_model/data/Scenario_data.xlsx
+++ b/simulation_model/data/Scenario_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="21600" windowWidth="25600" windowHeight="14780" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="District_names" sheetId="2" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="438">
   <si>
     <t>District</t>
   </si>
@@ -1418,6 +1418,9 @@
   </si>
   <si>
     <t>bridge_d_Tm</t>
+  </si>
+  <si>
+    <t>NON_FLOODED</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1540,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1602,7 +1607,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1616,19 +1627,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2971,11 +2978,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2100068536"/>
-        <c:axId val="2100071592"/>
+        <c:axId val="2119533352"/>
+        <c:axId val="2119530776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2100068536"/>
+        <c:axId val="2119533352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,7 +2992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100071592"/>
+        <c:crossAx val="2119530776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2993,7 +3000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100071592"/>
+        <c:axId val="2119530776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100068536"/>
+        <c:crossAx val="2119533352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5278,10 +5285,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5300,433 +5307,439 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>321</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>307</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>51</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>295</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>320</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>293</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B56" s="15" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5738,6 +5751,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5798,7 +5812,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="33" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -5813,15 +5827,15 @@
       <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="37" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="15" t="s">
         <v>242</v>
       </c>
@@ -5834,11 +5848,11 @@
       <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="15" t="s">
         <v>243</v>
       </c>
@@ -5851,11 +5865,11 @@
       <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="38"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="18" t="s">
         <v>244</v>
       </c>
@@ -5868,11 +5882,11 @@
       <c r="E6" s="30">
         <v>1</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="39" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -5887,11 +5901,11 @@
       <c r="E7" s="25">
         <v>1</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="15" t="s">
         <v>246</v>
       </c>
@@ -5904,11 +5918,11 @@
       <c r="E8" s="25">
         <v>1</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>247</v>
       </c>
@@ -5921,11 +5935,11 @@
       <c r="E9" s="25">
         <v>1</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="18" t="s">
         <v>248</v>
       </c>
@@ -5938,11 +5952,11 @@
       <c r="E10" s="30">
         <v>1</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="32" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -5957,11 +5971,11 @@
       <c r="E11" s="25">
         <v>1</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="37"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15" t="s">
         <v>250</v>
       </c>
@@ -5974,11 +5988,11 @@
       <c r="E12" s="25">
         <v>1</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="37"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="15" t="s">
         <v>251</v>
       </c>
@@ -5991,11 +6005,11 @@
       <c r="E13" s="25">
         <v>1</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="38"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="18" t="s">
         <v>252</v>
       </c>
@@ -6008,11 +6022,11 @@
       <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="39" t="s">
         <v>154</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -6027,11 +6041,11 @@
       <c r="E15" s="25">
         <v>1</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="15" t="s">
         <v>275</v>
       </c>
@@ -6044,11 +6058,11 @@
       <c r="E16" s="25">
         <v>1</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="15" t="s">
         <v>276</v>
       </c>
@@ -6061,11 +6075,11 @@
       <c r="E17" s="25">
         <v>1</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18" t="s">
         <v>277</v>
       </c>
@@ -6078,11 +6092,11 @@
       <c r="E18" s="30">
         <v>1</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="32" t="s">
         <v>155</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -6097,11 +6111,11 @@
       <c r="E19" s="25">
         <v>1</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="37"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15" t="s">
         <v>254</v>
       </c>
@@ -6114,11 +6128,11 @@
       <c r="E20" s="25">
         <v>1</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="37"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15" t="s">
         <v>255</v>
       </c>
@@ -6131,11 +6145,11 @@
       <c r="E21" s="25">
         <v>1</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="18" t="s">
         <v>256</v>
       </c>
@@ -6148,8 +6162,8 @@
       <c r="E22" s="18">
         <v>1</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="21.75" customHeight="1">
       <c r="A23" s="29"/>
@@ -6208,7 +6222,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="35" t="s">
         <v>260</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -6223,15 +6237,15 @@
       <c r="E28" s="15">
         <v>0.88</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="37" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="33"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="15" t="s">
         <v>259</v>
       </c>
@@ -6244,11 +6258,11 @@
       <c r="E29" s="15">
         <v>0</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="34"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="20" t="s">
         <v>261</v>
       </c>
@@ -6261,11 +6275,11 @@
       <c r="E30" s="15">
         <v>0.12</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="39" t="s">
         <v>151</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -6280,11 +6294,11 @@
       <c r="E31" s="25">
         <v>0.88</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="33"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="15" t="s">
         <v>263</v>
       </c>
@@ -6297,11 +6311,11 @@
       <c r="E32" s="15">
         <v>0</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="20" t="s">
         <v>264</v>
       </c>
@@ -6314,11 +6328,11 @@
       <c r="E33" s="25">
         <v>0.12</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="35" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -6333,11 +6347,11 @@
       <c r="E34" s="25">
         <v>0.88</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="33"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="15" t="s">
         <v>266</v>
       </c>
@@ -6350,11 +6364,11 @@
       <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="34"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="20" t="s">
         <v>267</v>
       </c>
@@ -6367,11 +6381,11 @@
       <c r="E36" s="25">
         <v>0.12</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="39" t="s">
         <v>278</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -6386,11 +6400,11 @@
       <c r="E37" s="25">
         <v>0.88</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="33"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="15" t="s">
         <v>269</v>
       </c>
@@ -6403,11 +6417,11 @@
       <c r="E38" s="15">
         <v>0</v>
       </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="34"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="20" t="s">
         <v>270</v>
       </c>
@@ -6420,11 +6434,11 @@
       <c r="E39" s="25">
         <v>0.12</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="39" t="s">
         <v>279</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -6439,11 +6453,11 @@
       <c r="E40" s="25">
         <v>0.88</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="33"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="15" t="s">
         <v>272</v>
       </c>
@@ -6456,11 +6470,11 @@
       <c r="E41" s="15">
         <v>0</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="20" t="s">
         <v>273</v>
       </c>
@@ -6473,8 +6487,8 @@
       <c r="E42" s="20">
         <v>0.12</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="38"/>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="28" t="s">
@@ -12544,7 +12558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -12570,7 +12584,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>336</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -12584,7 +12598,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="15" t="s">
         <v>416</v>
       </c>
@@ -12596,7 +12610,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="15" t="s">
         <v>417</v>
       </c>
@@ -12608,7 +12622,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="15" t="s">
         <v>418</v>
       </c>
@@ -12620,7 +12634,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="15" t="s">
         <v>419</v>
       </c>
@@ -12632,7 +12646,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="20" t="s">
         <v>420</v>
       </c>
@@ -12644,7 +12658,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="39" t="s">
         <v>338</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -12658,7 +12672,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>429</v>
       </c>
@@ -12670,7 +12684,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="15" t="s">
         <v>431</v>
       </c>
@@ -12682,7 +12696,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="33"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="15" t="s">
         <v>432</v>
       </c>
@@ -12694,7 +12708,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="15" t="s">
         <v>433</v>
       </c>
@@ -12706,7 +12720,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
         <v>434</v>
       </c>
@@ -12718,7 +12732,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="15" t="s">
         <v>435</v>
       </c>
@@ -12730,7 +12744,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="20" t="s">
         <v>436</v>
       </c>
@@ -12742,7 +12756,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="39" t="s">
         <v>337</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -12756,7 +12770,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="15" t="s">
         <v>422</v>
       </c>
@@ -12768,7 +12782,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="15" t="s">
         <v>423</v>
       </c>
@@ -12780,7 +12794,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="15" t="s">
         <v>424</v>
       </c>
@@ -12792,7 +12806,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="33"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="15" t="s">
         <v>425</v>
       </c>
@@ -12804,7 +12818,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="33"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="15" t="s">
         <v>426</v>
       </c>
@@ -12816,7 +12830,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="33"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="15" t="s">
         <v>427</v>
       </c>
@@ -12828,7 +12842,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="20" t="s">
         <v>428</v>
       </c>
@@ -12840,7 +12854,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="39" t="s">
         <v>341</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -12854,7 +12868,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="20" t="s">
         <v>340</v>
       </c>
@@ -12866,7 +12880,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="39" t="s">
         <v>342</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -12880,7 +12894,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="34"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="20" t="s">
         <v>400</v>
       </c>
@@ -12892,7 +12906,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="39" t="s">
         <v>342</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -12906,7 +12920,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="34"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="20" t="s">
         <v>402</v>
       </c>
@@ -12918,7 +12932,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="39" t="s">
         <v>343</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -12932,7 +12946,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="34"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="20" t="s">
         <v>404</v>
       </c>
@@ -12944,7 +12958,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="39" t="s">
         <v>344</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -12958,7 +12972,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="20" t="s">
         <v>406</v>
       </c>
